--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,24 +512,99 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Go to Profile &gt; Settings to update firmware</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4-11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>39</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Strong Interference Now</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strong Interference Now . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Strong Interference</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,99 +512,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>27</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>39</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Strong Interference Now . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Strong Interference Now</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>39</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Strong Interference Now . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Strong Interference</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
